--- a/src/test/java/resources/TestData.xlsx
+++ b/src/test/java/resources/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="63">
   <si>
     <t>Testtype</t>
   </si>

--- a/src/test/java/resources/TestData.xlsx
+++ b/src/test/java/resources/TestData.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DF732B3-E165-4624-90B5-0D7FC3B7199B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bells/IdeaProjects/Selenium_Excel_The-internet-herokuapp/src/test/java/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7E2995-3D19-B747-890A-EFE12DB9CC9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials2" sheetId="1" r:id="rId1"/>
     <sheet name="Tesplan (Webform test)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="63">
-  <si>
-    <t>Testtype</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>Firstname</t>
   </si>
@@ -214,10 +216,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
+    <t>TestType</t>
   </si>
 </sst>
 </file>
@@ -225,7 +224,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,7 +316,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -616,225 +615,225 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="10" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="7" max="10" customWidth="true" width="10.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -844,7 +843,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -860,97 +859,97 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="35.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.83203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="75">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45">
-      <c r="A3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" s="6"/>
     </row>
   </sheetData>
